--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
     <sheet name="ADD2" sheetId="2" r:id="rId2"/>
+    <sheet name="SUBTRACT" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="54">
   <si>
     <t>0</t>
   </si>
@@ -142,6 +143,54 @@
   </si>
   <si>
     <t>E2040000</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>0000001</t>
+  </si>
+  <si>
+    <t>0000101</t>
+  </si>
+  <si>
+    <t>0001101</t>
+  </si>
+  <si>
+    <t>0001110</t>
+  </si>
+  <si>
+    <t>0010110</t>
+  </si>
+  <si>
+    <t>26010301</t>
+  </si>
+  <si>
+    <t>48020281</t>
+  </si>
+  <si>
+    <t>4C080181</t>
+  </si>
+  <si>
+    <t>2A090301</t>
+  </si>
+  <si>
+    <t>0A090302</t>
+  </si>
+  <si>
+    <t>4C080081</t>
+  </si>
+  <si>
+    <t>56171A81</t>
+  </si>
+  <si>
+    <t>4A0A0200</t>
+  </si>
+  <si>
+    <t>563B2C81</t>
   </si>
 </sst>
 </file>
@@ -225,7 +274,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -931,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1277,4 +1367,714 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A23">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D23 F1:F23 H1:H23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
     <sheet name="ADD2" sheetId="2" r:id="rId2"/>
     <sheet name="SUBTRACT" sheetId="3" r:id="rId3"/>
+    <sheet name="FIND LARGE" sheetId="4" r:id="rId4"/>
+    <sheet name="FIND SMALL" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="77">
   <si>
     <t>0</t>
   </si>
@@ -191,6 +193,75 @@
   </si>
   <si>
     <t>563B2C81</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>0010001</t>
+  </si>
+  <si>
+    <t>0010000</t>
+  </si>
+  <si>
+    <t>STRIG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>0000100</t>
+  </si>
+  <si>
+    <t>4C090200</t>
+  </si>
+  <si>
+    <t>4F020400</t>
+  </si>
+  <si>
+    <t>0A050501</t>
+  </si>
+  <si>
+    <t>0A090502</t>
+  </si>
+  <si>
+    <t>4C0C0081</t>
+  </si>
+  <si>
+    <t>4C100082</t>
+  </si>
+  <si>
+    <t>320D0501</t>
+  </si>
+  <si>
+    <t>32110502</t>
+  </si>
+  <si>
+    <t>56372282</t>
+  </si>
+  <si>
+    <t>56431A82</t>
+  </si>
+  <si>
+    <t>40010503</t>
+  </si>
+  <si>
+    <t>48020483</t>
+  </si>
+  <si>
+    <t>56130180</t>
+  </si>
+  <si>
+    <t>E2080000</t>
   </si>
 </sst>
 </file>
@@ -274,7 +345,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1373,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -2048,12 +2159,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2077,4 +2188,1134 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,11 @@
     <sheet name="SUBTRACT" sheetId="3" r:id="rId3"/>
     <sheet name="FIND LARGE" sheetId="4" r:id="rId4"/>
     <sheet name="FIND SMALL" sheetId="5" r:id="rId5"/>
+    <sheet name="FIND LARGE AND EQUAL" sheetId="6" r:id="rId6"/>
+    <sheet name="FIND SMALL AND EQUAL" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="84">
   <si>
     <t>0</t>
   </si>
@@ -262,6 +264,27 @@
   </si>
   <si>
     <t>E2080000</t>
+  </si>
+  <si>
+    <t>0010011</t>
+  </si>
+  <si>
+    <t>0010010</t>
+  </si>
+  <si>
+    <t>0010100</t>
+  </si>
+  <si>
+    <t>56372682</t>
+  </si>
+  <si>
+    <t>564B1A82</t>
+  </si>
+  <si>
+    <t>36010503</t>
+  </si>
+  <si>
+    <t>56472883</t>
   </si>
 </sst>
 </file>
@@ -345,7 +368,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2159,12 +2222,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2724,12 +2787,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2759,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
@@ -3289,12 +3352,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3318,4 +3381,1308 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="FIND SMALL" sheetId="5" r:id="rId5"/>
     <sheet name="FIND LARGE AND EQUAL" sheetId="6" r:id="rId6"/>
     <sheet name="FIND SMALL AND EQUAL" sheetId="7" r:id="rId7"/>
+    <sheet name="MULTIPLICATION" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="112">
   <si>
     <t>0</t>
   </si>
@@ -285,6 +286,90 @@
   </si>
   <si>
     <t>56472883</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>0011000</t>
+  </si>
+  <si>
+    <t>0011101</t>
+  </si>
+  <si>
+    <t>4C0B0200</t>
+  </si>
+  <si>
+    <t>4A060600</t>
+  </si>
+  <si>
+    <t>4C070000</t>
+  </si>
+  <si>
+    <t>0A090301</t>
+  </si>
+  <si>
+    <t>48020481</t>
+  </si>
+  <si>
+    <t>32090501</t>
+  </si>
+  <si>
+    <t>3A080102</t>
+  </si>
+  <si>
+    <t>4C080082</t>
+  </si>
+  <si>
+    <t>563B1681</t>
+  </si>
+  <si>
+    <t>48010701</t>
+  </si>
+  <si>
+    <t>48020881</t>
+  </si>
+  <si>
+    <t>56400180</t>
+  </si>
+  <si>
+    <t>48020980</t>
+  </si>
+  <si>
+    <t>2A050901</t>
+  </si>
+  <si>
+    <t>0A050902</t>
+  </si>
+  <si>
+    <t>48020882</t>
+  </si>
+  <si>
+    <t>38010902</t>
+  </si>
+  <si>
+    <t>36010901</t>
+  </si>
+  <si>
+    <t>56433081</t>
+  </si>
+  <si>
+    <t>02040000</t>
+  </si>
+  <si>
+    <t>38010701</t>
+  </si>
+  <si>
+    <t>48020681</t>
+  </si>
+  <si>
+    <t>320B0101</t>
+  </si>
+  <si>
+    <t>56173A81</t>
   </si>
 </sst>
 </file>
@@ -368,7 +453,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1175,13 +1280,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H13 F1:F13 D1:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B13</xm:sqref>
         </x14:dataValidation>
@@ -1527,13 +1632,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D11 F1:F11 H1:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B11</xm:sqref>
         </x14:dataValidation>
@@ -2222,12 +2327,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A23">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2237,13 +2342,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D23 F1:F23 H1:H23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B23</xm:sqref>
         </x14:dataValidation>
@@ -2787,12 +2892,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2802,13 +2907,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B18</xm:sqref>
         </x14:dataValidation>
@@ -3352,12 +3457,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3367,13 +3472,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B18</xm:sqref>
         </x14:dataValidation>
@@ -4004,12 +4109,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4019,13 +4124,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B21</xm:sqref>
         </x14:dataValidation>
@@ -4039,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -4656,12 +4761,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4671,13 +4776,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B21</xm:sqref>
         </x14:dataValidation>
@@ -4685,4 +4790,925 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B30">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D30 F1:F30 H1:H30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="133">
   <si>
     <t>0</t>
   </si>
@@ -370,6 +370,69 @@
   </si>
   <si>
     <t>56173A81</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>010001</t>
+  </si>
+  <si>
+    <t>010010</t>
+  </si>
+  <si>
+    <t>010011</t>
+  </si>
+  <si>
+    <t>010100</t>
   </si>
 </sst>
 </file>
@@ -438,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -449,6 +512,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +679,7 @@
       <sheetName val="HEX GEN BACKEND"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -3490,632 +3554,695 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A21">
+  <conditionalFormatting sqref="B1:B21">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A21">
+  <conditionalFormatting sqref="B1:B21">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4126,13 +4253,13 @@
           <x14:formula1>
             <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
+          <xm:sqref>E1:E21 G1:G21 I1:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B21</xm:sqref>
+          <xm:sqref>C1:C21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4796,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>

--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="135">
   <si>
     <t>0</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>010100</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>010110</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -513,21 +519,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -555,6 +552,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -679,7 +716,7 @@
       <sheetName val="HEX GEN BACKEND"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1344,13 +1381,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H13 F1:F13 D1:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B13</xm:sqref>
         </x14:dataValidation>
@@ -1696,13 +1733,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D11 F1:F11 H1:H11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B11</xm:sqref>
         </x14:dataValidation>
@@ -1714,690 +1751,768 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A23">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="B1:B23">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A23">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
+  <conditionalFormatting sqref="B1:B23">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"STEP"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,15 +2521,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D23 F1:F23 H1:H23</xm:sqref>
+          <xm:sqref>E1:E23 G1:G23 I1:I23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:B23</xm:sqref>
+          <xm:sqref>C1:C23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2956,12 +3071,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2971,13 +3086,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B18</xm:sqref>
         </x14:dataValidation>
@@ -3521,12 +3636,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3536,13 +3651,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H18 F1:F18 D1:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B18</xm:sqref>
         </x14:dataValidation>
@@ -3556,7 +3671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4236,12 +4351,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4251,13 +4366,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E1:E21 G1:G21 I1:I21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C1:C21</xm:sqref>
         </x14:dataValidation>
@@ -4888,12 +5003,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4903,13 +5018,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D21 F1:F21 H1:H21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B21</xm:sqref>
         </x14:dataValidation>
@@ -5801,20 +5916,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B30">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5824,13 +5939,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D30 F1:F30 H1:H30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'D:\Projects\NewCircuitDesign\INSTRUCTIONS\[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1:B30</xm:sqref>
         </x14:dataValidation>

--- a/INSTRUCTIONS/RECORDS.xlsx
+++ b/INSTRUCTIONS/RECORDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ADD" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="FIND LARGE AND EQUAL" sheetId="6" r:id="rId6"/>
     <sheet name="FIND SMALL AND EQUAL" sheetId="7" r:id="rId7"/>
     <sheet name="MULTIPLICATION" sheetId="8" r:id="rId8"/>
+    <sheet name="DIVISION BETA" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="258">
   <si>
     <t>0</t>
   </si>
@@ -439,13 +440,382 @@
   </si>
   <si>
     <t>010110</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>0000011</t>
+  </si>
+  <si>
+    <t>0000110</t>
+  </si>
+  <si>
+    <t>0001001</t>
+  </si>
+  <si>
+    <t>0000111</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>0001000</t>
+  </si>
+  <si>
+    <t>0001111</t>
+  </si>
+  <si>
+    <t>1000100</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>0010101</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>0010111</t>
+  </si>
+  <si>
+    <t>0011001</t>
+  </si>
+  <si>
+    <t>0011010</t>
+  </si>
+  <si>
+    <t>0011011</t>
+  </si>
+  <si>
+    <t>0011100</t>
+  </si>
+  <si>
+    <t>0111111</t>
+  </si>
+  <si>
+    <t>0100010</t>
+  </si>
+  <si>
+    <t>0011110</t>
+  </si>
+  <si>
+    <t>0011111</t>
+  </si>
+  <si>
+    <t>0100000</t>
+  </si>
+  <si>
+    <t>0100001</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>0100011</t>
+  </si>
+  <si>
+    <t>0100100</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>0100101</t>
+  </si>
+  <si>
+    <t>0100110</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>0100111</t>
+  </si>
+  <si>
+    <t>0101000</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>0101001</t>
+  </si>
+  <si>
+    <t>0101010</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0101011</t>
+  </si>
+  <si>
+    <t>0101100</t>
+  </si>
+  <si>
+    <t>0101101</t>
+  </si>
+  <si>
+    <t>0101110</t>
+  </si>
+  <si>
+    <t>0101111</t>
+  </si>
+  <si>
+    <t>0110000</t>
+  </si>
+  <si>
+    <t>0110001</t>
+  </si>
+  <si>
+    <t>0110010</t>
+  </si>
+  <si>
+    <t>0110011</t>
+  </si>
+  <si>
+    <t>0110100</t>
+  </si>
+  <si>
+    <t>0110101</t>
+  </si>
+  <si>
+    <t>0110110</t>
+  </si>
+  <si>
+    <t>0110111</t>
+  </si>
+  <si>
+    <t>0111000</t>
+  </si>
+  <si>
+    <t>0111001</t>
+  </si>
+  <si>
+    <t>0111010</t>
+  </si>
+  <si>
+    <t>0111011</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>0111100</t>
+  </si>
+  <si>
+    <t>0111101</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>0111110</t>
+  </si>
+  <si>
+    <t>1000001</t>
+  </si>
+  <si>
+    <t>1000010</t>
+  </si>
+  <si>
+    <t>1000011</t>
+  </si>
+  <si>
+    <t>1000101</t>
+  </si>
+  <si>
+    <t>1000110</t>
+  </si>
+  <si>
+    <t>1000111</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>1001000</t>
+  </si>
+  <si>
+    <t>5C060C00</t>
+  </si>
+  <si>
+    <t>56270E81</t>
+  </si>
+  <si>
+    <t>120F0301</t>
+  </si>
+  <si>
+    <t>020C0000</t>
+  </si>
+  <si>
+    <t>56480000</t>
+  </si>
+  <si>
+    <t>3A0C0101</t>
+  </si>
+  <si>
+    <t>40010501</t>
+  </si>
+  <si>
+    <t>36010501</t>
+  </si>
+  <si>
+    <t>560F2281</t>
+  </si>
+  <si>
+    <t>57100000</t>
+  </si>
+  <si>
+    <t>4C150C00</t>
+  </si>
+  <si>
+    <t>4F020600</t>
+  </si>
+  <si>
+    <t>0A0D0701</t>
+  </si>
+  <si>
+    <t>0A150702</t>
+  </si>
+  <si>
+    <t>4C1C0081</t>
+  </si>
+  <si>
+    <t>321D0701</t>
+  </si>
+  <si>
+    <t>32110702</t>
+  </si>
+  <si>
+    <t>566F3881</t>
+  </si>
+  <si>
+    <t>56777E82</t>
+  </si>
+  <si>
+    <t>568B3A82</t>
+  </si>
+  <si>
+    <t>40010703</t>
+  </si>
+  <si>
+    <t>48020683</t>
+  </si>
+  <si>
+    <t>36010703</t>
+  </si>
+  <si>
+    <t>56874483</t>
+  </si>
+  <si>
+    <t>56530180</t>
+  </si>
+  <si>
+    <t>4A0C0106</t>
+  </si>
+  <si>
+    <t>4C200086</t>
+  </si>
+  <si>
+    <t>4A160800</t>
+  </si>
+  <si>
+    <t>26010904</t>
+  </si>
+  <si>
+    <t>48020884</t>
+  </si>
+  <si>
+    <t>4C240181</t>
+  </si>
+  <si>
+    <t>2A250904</t>
+  </si>
+  <si>
+    <t>0A250905</t>
+  </si>
+  <si>
+    <t>4C240084</t>
+  </si>
+  <si>
+    <t>48020885</t>
+  </si>
+  <si>
+    <t>38010905</t>
+  </si>
+  <si>
+    <t>36010904</t>
+  </si>
+  <si>
+    <t>56A76284</t>
+  </si>
+  <si>
+    <t>4A260800</t>
+  </si>
+  <si>
+    <t>2A210904</t>
+  </si>
+  <si>
+    <t>0A210905</t>
+  </si>
+  <si>
+    <t>4C200084</t>
+  </si>
+  <si>
+    <t>56CB7484</t>
+  </si>
+  <si>
+    <t>02200000</t>
+  </si>
+  <si>
+    <t>4A200107</t>
+  </si>
+  <si>
+    <t>4C0C0087</t>
+  </si>
+  <si>
+    <t>122B0308</t>
+  </si>
+  <si>
+    <t>4C280088</t>
+  </si>
+  <si>
+    <t>3A280108</t>
+  </si>
+  <si>
+    <t>02280000</t>
+  </si>
+  <si>
+    <t>562C0000</t>
+  </si>
+  <si>
+    <t>42280108</t>
+  </si>
+  <si>
+    <t>4A200108</t>
+  </si>
+  <si>
+    <t>48020A88</t>
+  </si>
+  <si>
+    <t>E2290A00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +823,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +867,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -520,11 +917,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -552,6 +975,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -695,6 +1148,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -713,11 +1196,13 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HEX GEN"/>
+      <sheetName val="Sheet1"/>
       <sheetName val="HEX GEN BACKEND"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1753,7 +2238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2501,17 +2986,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B23">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B23">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"STEP"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3071,12 +3556,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3636,12 +4121,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4351,12 +4836,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B21">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5003,12 +5488,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5916,20 +6401,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B30">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="STEP">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="STEP">
       <formula>NOT(ISERROR(SEARCH("STEP",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5953,4 +6438,2391 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B73">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B73">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C73">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="STEP">
+      <formula>NOT(ISERROR(SEARCH("STEP",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I73 G1:G73 E1:E73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Binary Instructions.xlsx]HEX GEN BACKEND'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C73</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>